--- a/db/Utilizadores.xlsx
+++ b/db/Utilizadores.xlsx
@@ -376,7 +376,7 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 123 </t>
+          <t xml:space="preserve"> 123   </t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
